--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3837.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3837.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.33615970215851</v>
+        <v>3.73547625541687</v>
       </c>
       <c r="B1">
-        <v>2.227596213235796</v>
+        <v>4.038856029510498</v>
       </c>
       <c r="C1">
-        <v>4.782921828199317</v>
+        <v>7.747185230255127</v>
       </c>
       <c r="D1">
-        <v>3.340457537442356</v>
+        <v>7.915988922119141</v>
       </c>
       <c r="E1">
-        <v>1.030430465920346</v>
+        <v>5.81642484664917</v>
       </c>
     </row>
   </sheetData>
